--- a/data/PF0012.xlsx
+++ b/data/PF0012.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">dayvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">ykishore21123@gmail.com</t>
+    <t xml:space="preserve">ykishore211tg23@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome@2017</t>
@@ -182,14 +182,16 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
